--- a/Software quality and testing - Selenium assignment.xlsx
+++ b/Software quality and testing - Selenium assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrsosnikov/Files/University projects/Software Testing (Java)/selenium-assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED81B7D0-CCAC-944C-B304-09FF42C5EDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6DAD7-7727-E442-B4B6-940FA4753E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38240" yWindow="1500" windowWidth="35840" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38220" yWindow="1480" windowWidth="35840" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="77">
   <si>
     <t>Step 1.</t>
   </si>
@@ -3900,8 +3900,8 @@
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4045,11 +4045,11 @@
       <c r="K4" s="1"/>
       <c r="M4" s="4">
         <f t="array" ref="M4">SUM(IF(J3:J44&lt;&gt;"",IF(ISNUMBER(J3:J44)*(C3:C44="Repeatable"),J3:J44*D3:D44,D3:D44),0))</f>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N4" s="4">
         <f t="array" ref="N4">SUM(IF((J3:J44&lt;&gt;"")*(B3:B44="A"),IF(ISNUMBER(J3:J44)*(C3:C44="Repeatable"),J3:J44*D3:D44,D3:D44),0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -4077,7 +4077,9 @@
       <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="L5" s="13" t="s">
         <v>35</v>
       </c>
@@ -4170,7 +4172,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="L8" s="1">
         <v>4</v>
       </c>
@@ -4281,7 +4285,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="L12" s="13" t="s">
         <v>35</v>
       </c>
@@ -4304,7 +4310,9 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="L13" s="1">
         <v>2</v>
       </c>
@@ -4360,7 +4368,9 @@
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="L15" s="1">
         <v>4</v>
       </c>
@@ -4388,7 +4398,9 @@
       <c r="H16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="L16" s="1">
         <v>5</v>
       </c>
@@ -4413,7 +4425,9 @@
       <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
@@ -4437,7 +4451,9 @@
       <c r="H18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="14" x14ac:dyDescent="0.15">
@@ -4504,7 +4520,9 @@
       <c r="H21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
@@ -4580,7 +4598,9 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
@@ -4750,7 +4770,9 @@
       <c r="D38" s="1">
         <v>4</v>
       </c>
-      <c r="J38" s="12"/>
+      <c r="J38" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>

--- a/Software quality and testing - Selenium assignment.xlsx
+++ b/Software quality and testing - Selenium assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrsosnikov/Files/University projects/Software Testing (Java)/selenium-assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6DAD7-7727-E442-B4B6-940FA4753E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABAFD1C-D74D-0F46-AF33-49A264228BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38220" yWindow="1480" windowWidth="35840" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
   <si>
     <t>Step 1.</t>
   </si>
@@ -3900,8 +3900,8 @@
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4045,11 +4045,11 @@
       <c r="K4" s="1"/>
       <c r="M4" s="4">
         <f t="array" ref="M4">SUM(IF(J3:J44&lt;&gt;"",IF(ISNUMBER(J3:J44)*(C3:C44="Repeatable"),J3:J44*D3:D44,D3:D44),0))</f>
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N4" s="4">
         <f t="array" ref="N4">SUM(IF((J3:J44&lt;&gt;"")*(B3:B44="A"),IF(ISNUMBER(J3:J44)*(C3:C44="Repeatable"),J3:J44*D3:D44,D3:D44),0))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -4145,7 +4145,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="12">
+        <v>3</v>
+      </c>
       <c r="L7" s="1">
         <v>3</v>
       </c>
@@ -4172,8 +4174,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="12" t="s">
-        <v>33</v>
+      <c r="J8" s="12">
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>4</v>
@@ -4210,7 +4212,9 @@
       <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="L9" s="1">
         <v>5</v>
       </c>
@@ -4240,7 +4244,9 @@
       <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
@@ -4267,7 +4273,9 @@
       <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="12">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
@@ -4318,7 +4326,7 @@
       </c>
       <c r="M13" s="14" t="str">
         <f t="array" ref="M13">IF(SUM(IF(($E$3:$E$44&lt;&gt;"")*($J$3:$J$44=""),1,0)) = 0, "OK", "Not satisfied")</f>
-        <v>Not satisfied</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -4481,7 +4489,9 @@
       <c r="H19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
@@ -4598,9 +4608,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
@@ -4631,7 +4639,9 @@
       <c r="D29" s="1">
         <v>6</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
